--- a/#AUTRES/Formulaires De Renseignement/genius-formulaire-de-renseignement-dut-glt.xlsx
+++ b/#AUTRES/Formulaires De Renseignement/genius-formulaire-de-renseignement-dut-glt.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iut-aix\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOUVEAU\Desktop\Genius\#AUTRES\Formulaires De Renseignement\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00B8BF0-F1E2-4CA4-8D2A-A19467E0E1F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10950" tabRatio="333"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>Informations de la formation</t>
   </si>
@@ -292,12 +301,39 @@
   </si>
   <si>
     <t>Responsable logisitque</t>
+  </si>
+  <si>
+    <t>Organisation chaine logistique</t>
+  </si>
+  <si>
+    <t>Gestion transport</t>
+  </si>
+  <si>
+    <t>Gestion plateforme logistique</t>
+  </si>
+  <si>
+    <t>Approvisionnement et stocks</t>
+  </si>
+  <si>
+    <t>Transport à l'international</t>
+  </si>
+  <si>
+    <t>DUT GLT</t>
+  </si>
+  <si>
+    <t>Compléter 3 autres missions au minimum</t>
+  </si>
+  <si>
+    <t>Compléter 2 missions au minimum</t>
+  </si>
+  <si>
+    <t>A compléter : missions (voir en bas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -308,18 +344,21 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +395,12 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -370,21 +415,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +469,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Sheet1-style" pivot="0" count="2">
+    <tableStyle name="Sheet1-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
@@ -437,12 +486,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A10:D14" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A10:D14" headerRowCount="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Lieu 1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Quartier 1"/>
-    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Lieu 1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Quartier 1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -744,30 +793,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="70.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.1328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="2"/>
-    <col min="9" max="9" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="2"/>
+    <col min="8" max="8" width="14.3984375" style="2"/>
+    <col min="9" max="9" width="24.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.86328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="33.265625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="14.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,10 +824,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
@@ -786,12 +838,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="12"/>
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -802,21 +855,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -824,7 +879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -832,12 +887,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -854,7 +909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -869,7 +924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -884,7 +939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -899,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -914,17 +969,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -932,7 +987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -940,13 +995,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="J19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
@@ -957,14 +1012,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E21" t="s">
@@ -974,31 +1029,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="7">
-        <v>2</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="7">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E23"/>
@@ -1006,45 +1061,45 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="7">
-        <v>4</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="7">
-        <v>5</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I26" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J27" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -1052,7 +1107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
@@ -1060,13 +1115,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="I30" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
@@ -1074,7 +1129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -1085,10 +1140,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="str">
         <f t="shared" ref="A33:A37" si="0">B21</f>
-        <v>1</v>
+        <v>Organisation chaine logistique</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>84</v>
@@ -1097,10 +1152,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>Gestion transport</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>83</v>
@@ -1109,10 +1164,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>Gestion plateforme logistique</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>82</v>
@@ -1121,10 +1176,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>Approvisionnement et stocks</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>85</v>
@@ -1133,10 +1188,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>Transport à l'international</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>86</v>
@@ -1145,21 +1200,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J38" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="8"/>
       <c r="J39" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -1176,137 +1231,149 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="str">
         <f>B21</f>
-        <v>1</v>
-      </c>
-      <c r="B41" s="7">
+        <v>Organisation chaine logistique</v>
+      </c>
+      <c r="B41" s="5" t="str">
         <f t="shared" ref="B41:B44" si="1">B22</f>
-        <v>2</v>
+        <v>Gestion transport</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="D41" s="9"/>
+      <c r="E41" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="str">
         <f>B21</f>
-        <v>1</v>
-      </c>
-      <c r="B42" s="7">
+        <v>Organisation chaine logistique</v>
+      </c>
+      <c r="B42" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+        <v>Gestion plateforme logistique</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="str">
         <f>B21</f>
-        <v>1</v>
-      </c>
-      <c r="B43" s="7">
+        <v>Organisation chaine logistique</v>
+      </c>
+      <c r="B43" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>Approvisionnement et stocks</v>
       </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="D43" s="9"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="str">
         <f t="shared" ref="A44:A45" si="2">B21</f>
-        <v>1</v>
-      </c>
-      <c r="B44" s="7">
+        <v>Organisation chaine logistique</v>
+      </c>
+      <c r="B44" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>Transport à l'international</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="10"/>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="D44" s="9"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B45" s="7">
+        <v>Gestion transport</v>
+      </c>
+      <c r="B45" s="5" t="str">
         <f t="shared" ref="B45:B47" si="3">B23</f>
-        <v>3</v>
+        <v>Gestion plateforme logistique</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="D45" s="9"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="str">
         <f>B22</f>
-        <v>2</v>
-      </c>
-      <c r="B46" s="7">
+        <v>Gestion transport</v>
+      </c>
+      <c r="B46" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>Approvisionnement et stocks</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="D46" s="9"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="str">
         <f t="shared" ref="A47:A48" si="4">B22</f>
-        <v>2</v>
-      </c>
-      <c r="B47" s="7">
+        <v>Gestion transport</v>
+      </c>
+      <c r="B47" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>Transport à l'international</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="D47" s="9"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="B48" s="7">
+        <v>Gestion plateforme logistique</v>
+      </c>
+      <c r="B48" s="5" t="str">
         <f t="shared" ref="B48:B49" si="5">B24</f>
-        <v>4</v>
+        <v>Approvisionnement et stocks</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="D48" s="9"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="str">
         <f t="shared" ref="A49:A50" si="6">B23</f>
-        <v>3</v>
-      </c>
-      <c r="B49" s="7">
+        <v>Gestion plateforme logistique</v>
+      </c>
+      <c r="B49" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>Transport à l'international</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="D49" s="9"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B50" s="7">
+        <v>Approvisionnement et stocks</v>
+      </c>
+      <c r="B50" s="5" t="str">
         <f>B25</f>
-        <v>5</v>
+        <v>Transport à l'international</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>41</v>
       </c>
@@ -1326,112 +1393,119 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="str">
         <f>B21</f>
-        <v>1</v>
-      </c>
-      <c r="B54" s="7">
+        <v>Organisation chaine logistique</v>
+      </c>
+      <c r="B54" s="5" t="str">
         <f>B22</f>
-        <v>2</v>
-      </c>
-      <c r="C54" s="7">
+        <v>Gestion transport</v>
+      </c>
+      <c r="C54" s="5" t="str">
         <f>B23</f>
-        <v>3</v>
-      </c>
-      <c r="D54" s="7">
+        <v>Gestion plateforme logistique</v>
+      </c>
+      <c r="D54" s="5" t="str">
         <f t="shared" ref="D54:D55" si="7">B24</f>
-        <v>4</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+        <v>Approvisionnement et stocks</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="str">
         <f>B21</f>
-        <v>1</v>
-      </c>
-      <c r="B55" s="7">
+        <v>Organisation chaine logistique</v>
+      </c>
+      <c r="B55" s="5" t="str">
         <f>B22</f>
-        <v>2</v>
-      </c>
-      <c r="C55" s="7">
+        <v>Gestion transport</v>
+      </c>
+      <c r="C55" s="5" t="str">
         <f t="shared" ref="C55:C56" si="8">B23</f>
-        <v>3</v>
-      </c>
-      <c r="D55" s="7">
+        <v>Gestion plateforme logistique</v>
+      </c>
+      <c r="D55" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+        <v>Transport à l'international</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="str">
         <f>B21</f>
-        <v>1</v>
-      </c>
-      <c r="B56" s="7">
+        <v>Organisation chaine logistique</v>
+      </c>
+      <c r="B56" s="5" t="str">
         <f t="shared" ref="B56:B57" si="9">B22</f>
-        <v>2</v>
-      </c>
-      <c r="C56" s="7">
+        <v>Gestion transport</v>
+      </c>
+      <c r="C56" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="D56" s="7">
+        <v>Approvisionnement et stocks</v>
+      </c>
+      <c r="D56" s="5" t="str">
         <f>B25</f>
-        <v>5</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+        <v>Transport à l'international</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="str">
         <f t="shared" ref="A57:A58" si="10">B21</f>
-        <v>1</v>
-      </c>
-      <c r="B57" s="7">
+        <v>Organisation chaine logistique</v>
+      </c>
+      <c r="B57" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="C57" s="7">
+        <v>Gestion plateforme logistique</v>
+      </c>
+      <c r="C57" s="5" t="str">
         <f>B24</f>
-        <v>4</v>
-      </c>
-      <c r="D57" s="7">
+        <v>Approvisionnement et stocks</v>
+      </c>
+      <c r="D57" s="5" t="str">
         <f>B25</f>
-        <v>5</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+        <v>Transport à l'international</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="B58" s="7">
+        <v>Gestion transport</v>
+      </c>
+      <c r="B58" s="5" t="str">
         <f>B23</f>
-        <v>3</v>
-      </c>
-      <c r="C58" s="7">
+        <v>Gestion plateforme logistique</v>
+      </c>
+      <c r="C58" s="5" t="str">
         <f>B24</f>
-        <v>4</v>
-      </c>
-      <c r="D58" s="7">
+        <v>Approvisionnement et stocks</v>
+      </c>
+      <c r="D58" s="5" t="str">
         <f>B25</f>
-        <v>5</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>Transport à l'international</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>41</v>
       </c>
@@ -1454,35 +1528,40 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="str">
         <f>B21</f>
-        <v>1</v>
-      </c>
-      <c r="B62" s="5">
+        <v>Organisation chaine logistique</v>
+      </c>
+      <c r="B62" s="5" t="str">
         <f>B22</f>
-        <v>2</v>
-      </c>
-      <c r="C62" s="5">
+        <v>Gestion transport</v>
+      </c>
+      <c r="C62" s="5" t="str">
         <f>B23</f>
-        <v>3</v>
-      </c>
-      <c r="D62" s="5">
+        <v>Gestion plateforme logistique</v>
+      </c>
+      <c r="D62" s="5" t="str">
         <f>B24</f>
-        <v>4</v>
-      </c>
-      <c r="E62" s="5">
+        <v>Approvisionnement et stocks</v>
+      </c>
+      <c r="E62" s="5" t="str">
         <f>B25</f>
-        <v>5</v>
+        <v>Transport à l'international</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G62" s="12" t="s">
+      <c r="G62" s="3" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="E41:E50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
